--- a/model.xlsx
+++ b/model.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE469FB-5DC8-40F5-AF19-14752DD28427}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B024689-12BE-4F52-B41E-EB1AED8C67A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LLOCA子节点" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>LLOCA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,19 +98,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偏低（未发生）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正常（发生）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>偏高呈下降趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Containment radioactivity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pit water level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary circuit coolant flow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average pressure of primary circuit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulator pressure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Regulator water level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RWL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLOCA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏低（未发生 no）lower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正常（发生 yes）normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏高  higher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3#冷却剂流量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子节点8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -451,7 +535,7 @@
     <col min="5" max="5" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -476,8 +560,11 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -502,55 +589,63 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -563,10 +658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6282DC7E-FE55-47E6-BA45-D61E5B98B580}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -638,7 +733,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -646,17 +741,25 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -669,22 +772,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCFC214E-7DD9-444C-B3E6-9583CDFBCF79}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.77734375" customWidth="1"/>
     <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -692,19 +797,25 @@
         <v>19</v>
       </c>
       <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -717,8 +828,11 @@
       <c r="D2">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -743,8 +857,14 @@
       <c r="H3">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -769,8 +889,11 @@
       <c r="H4">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -795,8 +918,11 @@
       <c r="H5">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -821,8 +947,14 @@
       <c r="H6">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -847,8 +979,14 @@
       <c r="H7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -873,71 +1011,74 @@
       <c r="H8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.02</v>
+      </c>
+      <c r="D9">
+        <v>0.96</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9">
+        <v>0.99</v>
+      </c>
+      <c r="G9">
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>0.95</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.05</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.95</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>0.05</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>0.99</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.02</v>
-      </c>
-      <c r="G10">
-        <v>0.96</v>
-      </c>
-      <c r="H10">
-        <v>0.02</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.99</v>
-      </c>
-      <c r="K10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -968,6 +1109,53 @@
       </c>
       <c r="K11">
         <v>0.01</v>
+      </c>
+      <c r="L11" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.99</v>
+      </c>
+      <c r="D12">
+        <v>0.01</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.02</v>
+      </c>
+      <c r="G12">
+        <v>0.96</v>
+      </c>
+      <c r="H12">
+        <v>0.02</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.99</v>
+      </c>
+      <c r="K12">
+        <v>0.01</v>
+      </c>
+      <c r="L12" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
